--- a/Docs/予定表.xlsx
+++ b/Docs/予定表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="24">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -190,6 +190,51 @@
       <t>サギョウ</t>
     </rPh>
     <rPh sb="31" eb="32">
+      <t>コト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バージョン管理について</t>
+    <rPh sb="5" eb="7">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>常に皆が最新のバージョンを持っている事。</t>
+    <rPh sb="0" eb="1">
+      <t>ツネ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ミンナ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サイシン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>コト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最低でも1日1回は更新する事。</t>
+    <rPh sb="0" eb="2">
+      <t>サイテイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
       <t>コト</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -215,7 +260,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -267,6 +312,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,7 +392,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -357,6 +414,9 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -664,7 +724,7 @@
   <dimension ref="B2:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -804,6 +864,9 @@
       <c r="D12" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="F12" s="15" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B13" s="4">
@@ -813,6 +876,9 @@
         <v>6</v>
       </c>
       <c r="D13" s="3"/>
+      <c r="F13" s="16" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B14" s="4">
@@ -822,6 +888,9 @@
         <v>7</v>
       </c>
       <c r="D14" s="3"/>
+      <c r="F14" s="17" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B15" s="4">

--- a/Docs/予定表.xlsx
+++ b/Docs/予定表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="30">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -86,22 +86,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>毎週水曜日13:00～開始予定</t>
-    <rPh sb="0" eb="2">
-      <t>マイシュウ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>スイヨウビ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>カイシ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ヨテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>その週の報告をする。</t>
     <rPh sb="2" eb="3">
       <t>シュウ</t>
@@ -202,7 +186,80 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>常に皆が最新のバージョンを持っている事。</t>
+    <t>火</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>α版完成</t>
+    <rPh sb="1" eb="2">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>β版完成</t>
+    <rPh sb="1" eb="2">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>浅尾</t>
+    <rPh sb="0" eb="2">
+      <t>アサオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鷲津</t>
+    <rPh sb="0" eb="2">
+      <t>ワシヅ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不在者(作業不可)</t>
+    <rPh sb="0" eb="2">
+      <t>フザイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>フカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最低でも1日1回は更新する事</t>
+    <rPh sb="0" eb="2">
+      <t>サイテイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>コト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>常に皆が最新のバージョンを持っている事</t>
     <rPh sb="0" eb="1">
       <t>ツネ</t>
     </rPh>
@@ -221,21 +278,36 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>最低でも1日1回は更新する事。</t>
+    <t>毎週水曜日13:00～開始予定。所要時間は大体1時間弱程度。</t>
     <rPh sb="0" eb="2">
-      <t>サイテイ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ニチ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>カイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>コト</t>
+      <t>マイシュウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>スイヨウビ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ショヨウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ダイタイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ジャク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>テイド</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -260,7 +332,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -324,6 +396,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,11 +488,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="56" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -417,12 +512,23 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFFCC"/>
+      <color rgb="FFFFFF99"/>
+      <color rgb="FF00FFCC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -721,389 +827,450 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H37"/>
+  <dimension ref="B2:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="4" max="4" width="54.25" customWidth="1"/>
-    <col min="6" max="6" width="59.25" customWidth="1"/>
-    <col min="7" max="7" width="9.375" customWidth="1"/>
+    <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="59.25" customWidth="1"/>
+    <col min="8" max="8" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="E2" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B3" s="4">
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B3" s="3">
         <v>41848</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="F3" s="8" t="s">
+      <c r="D3" s="17"/>
+      <c r="E3" s="20"/>
+      <c r="G3" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B4" s="3">
+        <v>41849</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="17"/>
+      <c r="E4" s="20"/>
+      <c r="G4" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B4" s="4">
-        <v>41849</v>
-      </c>
-      <c r="C4" s="5" t="s">
+    <row r="5" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="3">
+        <v>41850</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="20"/>
+      <c r="G5" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B6" s="3">
+        <v>41851</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="17"/>
+      <c r="E6" s="20"/>
+      <c r="G6" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B7" s="3">
+        <v>41852</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="20"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B8" s="3">
+        <v>41853</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="17"/>
+      <c r="E8" s="20"/>
+      <c r="G8" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B9" s="3">
+        <v>41854</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B10" s="3">
+        <v>41855</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B11" s="3">
+        <v>41856</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="E11" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B12" s="3">
+        <v>41857</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B13" s="3">
+        <v>41858</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="17"/>
+      <c r="E13" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B14" s="3">
+        <v>41859</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="17"/>
+      <c r="E14" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B15" s="3">
+        <v>41860</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="17"/>
+      <c r="E15" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B16" s="3">
+        <v>41861</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="17"/>
+      <c r="E16" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B17" s="3">
+        <v>41862</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="17"/>
+      <c r="E17" s="20"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B18" s="3">
+        <v>41863</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="F4" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="4">
-        <v>41850</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="D18" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="20"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B19" s="3">
+        <v>41864</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="F5" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B6" s="4">
-        <v>41851</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="D19" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="20"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B20" s="3">
+        <v>41865</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="F6" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B7" s="4">
-        <v>41852</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="D20" s="17"/>
+      <c r="E20" s="20"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B21" s="3">
+        <v>41866</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B8" s="4">
-        <v>41853</v>
-      </c>
-      <c r="C8" s="5" t="s">
+      <c r="D21" s="17"/>
+      <c r="E21" s="20"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B22" s="3">
+        <v>41867</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="F8" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B9" s="4">
-        <v>41854</v>
-      </c>
-      <c r="C9" s="5" t="s">
+      <c r="D22" s="17"/>
+      <c r="E22" s="20"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B23" s="3">
+        <v>41868</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="F9" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B10" s="4">
-        <v>41855</v>
-      </c>
-      <c r="C10" s="5" t="s">
+      <c r="D23" s="17"/>
+      <c r="E23" s="20"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B24" s="3">
+        <v>41869</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="F10" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B11" s="4">
-        <v>41856</v>
-      </c>
-      <c r="C11" s="5" t="s">
+      <c r="D24" s="17"/>
+      <c r="E24" s="20"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B25" s="3">
+        <v>41870</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B12" s="4">
-        <v>41857</v>
-      </c>
-      <c r="C12" s="5" t="s">
+      <c r="D25" s="17"/>
+      <c r="E25" s="20"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B26" s="3">
+        <v>41871</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D26" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B13" s="4">
-        <v>41858</v>
-      </c>
-      <c r="C13" s="5" t="s">
+      <c r="E26" s="20"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B27" s="3">
+        <v>41872</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="F13" s="16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B14" s="4">
-        <v>41859</v>
-      </c>
-      <c r="C14" s="5" t="s">
+      <c r="D27" s="17"/>
+      <c r="E27" s="20"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B28" s="3">
+        <v>41873</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="F14" s="17" t="s">
+      <c r="D28" s="17"/>
+      <c r="E28" s="20"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B29" s="3">
+        <v>41874</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="17"/>
+      <c r="E29" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B30" s="3">
+        <v>41875</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="17"/>
+      <c r="E30" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B31" s="3">
+        <v>41876</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="17"/>
+      <c r="E31" s="20"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B32" s="3">
+        <v>41877</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="17" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B15" s="4">
-        <v>41860</v>
-      </c>
-      <c r="C15" s="5" t="s">
+      <c r="E32" s="20"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B33" s="3">
+        <v>41878</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="20"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B34" s="3">
+        <v>41879</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="17"/>
+      <c r="E34" s="20"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B35" s="3">
+        <v>41880</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="17"/>
+      <c r="E35" s="20"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B36" s="3">
+        <v>41881</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B16" s="4">
-        <v>41861</v>
-      </c>
-      <c r="C16" s="5" t="s">
+      <c r="D36" s="17"/>
+      <c r="E36" s="20"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B37" s="3">
+        <v>41882</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B17" s="4">
-        <v>41862</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B18" s="4">
-        <v>41863</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B19" s="4">
-        <v>41864</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B20" s="4">
-        <v>41865</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B21" s="4">
-        <v>41866</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B22" s="4">
-        <v>41867</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B23" s="4">
-        <v>41868</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B24" s="4">
-        <v>41869</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B25" s="4">
-        <v>41870</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B26" s="4">
-        <v>41871</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B27" s="4">
-        <v>41872</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B28" s="4">
-        <v>41873</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="3"/>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B29" s="4">
-        <v>41874</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="3"/>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B30" s="4">
-        <v>41875</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="3"/>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B31" s="4">
-        <v>41876</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" s="3"/>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B32" s="4">
-        <v>41877</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" s="3"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B33" s="4">
-        <v>41878</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B34" s="4">
-        <v>41879</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" s="3"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B35" s="4">
-        <v>41880</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" s="3"/>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B36" s="4">
-        <v>41881</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="3"/>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B37" s="4">
-        <v>41882</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="3"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Docs/予定表.xlsx
+++ b/Docs/予定表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="34">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -308,6 +308,58 @@
     </rPh>
     <rPh sb="27" eb="29">
       <t>テイド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>後期通常授業開始</t>
+    <rPh sb="0" eb="2">
+      <t>コウキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジュギョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>後期集中授業開始</t>
+    <rPh sb="0" eb="2">
+      <t>コウキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュウチュウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジュギョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロトタイプ完成</t>
+    <rPh sb="6" eb="8">
+      <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完成版完成</t>
+    <rPh sb="0" eb="2">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -827,9 +879,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I37"/>
+  <dimension ref="B2:I80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1066,7 +1120,7 @@
         <v>4</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E18" s="20"/>
     </row>
@@ -1205,7 +1259,9 @@
       <c r="C31" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D31" s="17"/>
+      <c r="D31" s="17" t="s">
+        <v>22</v>
+      </c>
       <c r="E31" s="20"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.15">
@@ -1216,7 +1272,7 @@
         <v>4</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E32" s="20"/>
     </row>
@@ -1227,9 +1283,7 @@
       <c r="C33" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D33" s="17" t="s">
-        <v>12</v>
-      </c>
+      <c r="D33" s="17"/>
       <c r="E33" s="20"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.15">
@@ -1271,6 +1325,460 @@
       </c>
       <c r="D37" s="17"/>
       <c r="E37" s="20"/>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B38" s="3">
+        <v>41883</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="17"/>
+      <c r="E38" s="20"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B39" s="3">
+        <v>41884</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="20"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B40" s="3">
+        <v>41885</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="17"/>
+      <c r="E40" s="20"/>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B41" s="3">
+        <v>41886</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="17"/>
+      <c r="E41" s="20"/>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B42" s="3">
+        <v>41887</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="17"/>
+      <c r="E42" s="20"/>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B43" s="3">
+        <v>41888</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="17"/>
+      <c r="E43" s="20"/>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B44" s="3">
+        <v>41889</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="17"/>
+      <c r="E44" s="20"/>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B45" s="3">
+        <v>41890</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" s="17"/>
+      <c r="E45" s="20"/>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B46" s="3">
+        <v>41891</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="20"/>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B47" s="3">
+        <v>41892</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" s="17"/>
+      <c r="E47" s="20"/>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B48" s="3">
+        <v>41893</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="17"/>
+      <c r="E48" s="20"/>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B49" s="3">
+        <v>41894</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="17"/>
+      <c r="E49" s="20"/>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B50" s="3">
+        <v>41895</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="17"/>
+      <c r="E50" s="20"/>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B51" s="3">
+        <v>41896</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="17"/>
+      <c r="E51" s="20"/>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B52" s="3">
+        <v>41897</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E52" s="20"/>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B53" s="3">
+        <v>41898</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" s="20"/>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B54" s="3">
+        <v>41899</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" s="17"/>
+      <c r="E54" s="20"/>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B55" s="3">
+        <v>41900</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="17"/>
+      <c r="E55" s="20"/>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B56" s="3">
+        <v>41901</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E56" s="20"/>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B57" s="3">
+        <v>41902</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="17"/>
+      <c r="E57" s="20"/>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B58" s="3">
+        <v>41903</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="17"/>
+      <c r="E58" s="20"/>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B59" s="3">
+        <v>41904</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D59" s="17"/>
+      <c r="E59" s="20"/>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B60" s="3">
+        <v>41905</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60" s="20"/>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B61" s="3">
+        <v>41906</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" s="17"/>
+      <c r="E61" s="20"/>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B62" s="3">
+        <v>41907</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" s="17"/>
+      <c r="E62" s="20"/>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B63" s="3">
+        <v>41908</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" s="17"/>
+      <c r="E63" s="20"/>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B64" s="3">
+        <v>41909</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="17"/>
+      <c r="E64" s="20"/>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B65" s="3">
+        <v>41910</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="17"/>
+      <c r="E65" s="20"/>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B66" s="3">
+        <v>41911</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D66" s="17"/>
+      <c r="E66" s="20"/>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B67" s="3">
+        <v>41912</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D67" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E67" s="20"/>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B68" s="3">
+        <v>41913</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" s="17"/>
+      <c r="E68" s="20"/>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B69" s="3">
+        <v>41914</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" s="17"/>
+      <c r="E69" s="20"/>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B70" s="3">
+        <v>41915</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" s="17"/>
+      <c r="E70" s="20"/>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B71" s="3">
+        <v>41916</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D71" s="17"/>
+      <c r="E71" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B72" s="3">
+        <v>41917</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="17"/>
+      <c r="E72" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B73" s="3">
+        <v>41918</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D73" s="17"/>
+      <c r="E73" s="20"/>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B74" s="3">
+        <v>41919</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D74" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E74" s="20"/>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B75" s="3">
+        <v>41920</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D75" s="17"/>
+      <c r="E75" s="20"/>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B76" s="3">
+        <v>41921</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" s="17"/>
+      <c r="E76" s="20"/>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B77" s="3">
+        <v>41922</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E77" s="20"/>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B78" s="3">
+        <v>41923</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78" s="17"/>
+      <c r="E78" s="20"/>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B79" s="3">
+        <v>41924</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="17"/>
+      <c r="E79" s="20"/>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B80" s="3">
+        <v>41925</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D80" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E80" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Docs/予定表.xlsx
+++ b/Docs/予定表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="37">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -190,6 +190,154 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>浅尾</t>
+    <rPh sb="0" eb="2">
+      <t>アサオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鷲津</t>
+    <rPh sb="0" eb="2">
+      <t>ワシヅ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不在者(作業不可)</t>
+    <rPh sb="0" eb="2">
+      <t>フザイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>フカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最低でも1日1回は更新する事</t>
+    <rPh sb="0" eb="2">
+      <t>サイテイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>コト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>常に皆が最新のバージョンを持っている事</t>
+    <rPh sb="0" eb="1">
+      <t>ツネ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ミンナ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サイシン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>コト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>毎週水曜日13:00～開始予定。所要時間は大体1時間弱程度。</t>
+    <rPh sb="0" eb="2">
+      <t>マイシュウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>スイヨウビ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ショヨウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ダイタイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ジャク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>テイド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>後期通常授業開始</t>
+    <rPh sb="0" eb="2">
+      <t>コウキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジュギョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>後期集中授業開始</t>
+    <rPh sb="0" eb="2">
+      <t>コウキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュウチュウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジュギョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お盆休み</t>
+    <rPh sb="1" eb="3">
+      <t>ボンヤス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロトタイプ完成</t>
+    <rPh sb="6" eb="8">
+      <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>α版完成</t>
     <rPh sb="1" eb="2">
       <t>バン</t>
@@ -210,156 +358,35 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>浅尾</t>
+    <t>完全版完成</t>
     <rPh sb="0" eb="2">
-      <t>アサオ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>鷲津</t>
+      <t>カンゼン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完全版、ほぼ完成</t>
     <rPh sb="0" eb="2">
-      <t>ワシヅ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>不在者(作業不可)</t>
-    <rPh sb="0" eb="2">
-      <t>フザイ</t>
+      <t>カンゼン</t>
     </rPh>
     <rPh sb="2" eb="3">
-      <t>シャ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>サギョウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>フカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>最低でも1日1回は更新する事</t>
-    <rPh sb="0" eb="2">
-      <t>サイテイ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ニチ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>カイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>コト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>常に皆が最新のバージョンを持っている事</t>
-    <rPh sb="0" eb="1">
-      <t>ツネ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ミンナ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>サイシン</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>モ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>コト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>毎週水曜日13:00～開始予定。所要時間は大体1時間弱程度。</t>
-    <rPh sb="0" eb="2">
-      <t>マイシュウ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>スイヨウビ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>カイシ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ヨテイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ショヨウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ダイタイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ジャク</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>テイド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>後期通常授業開始</t>
-    <rPh sb="0" eb="2">
-      <t>コウキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ツウジョウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ジュギョウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>カイシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>後期集中授業開始</t>
-    <rPh sb="0" eb="2">
-      <t>コウキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シュウチュウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ジュギョウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>カイシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プロトタイプ完成</t>
+      <t>バン</t>
+    </rPh>
     <rPh sb="6" eb="8">
       <t>カンセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>完成版完成</t>
-    <rPh sb="0" eb="2">
-      <t>カンセイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>バン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カンセイ</t>
+    <t>デバッグ期間</t>
+    <rPh sb="4" eb="6">
+      <t>キカン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -384,7 +411,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -472,6 +499,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5EFEC9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -540,7 +597,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -568,6 +625,11 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -576,6 +638,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FF5EFEC9"/>
+      <color rgb="FFFFCC00"/>
       <color rgb="FFFFFFCC"/>
       <color rgb="FFFFFF99"/>
       <color rgb="FF00FFCC"/>
@@ -881,8 +945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -904,7 +968,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>13</v>
@@ -922,7 +986,7 @@
       <c r="D3" s="17"/>
       <c r="E3" s="20"/>
       <c r="G3" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
@@ -971,7 +1035,7 @@
       <c r="C7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="24" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="20"/>
@@ -998,7 +1062,7 @@
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G9" s="11" t="s">
         <v>18</v>
@@ -1013,7 +1077,7 @@
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G10" s="12" t="s">
         <v>19</v>
@@ -1028,7 +1092,7 @@
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.15">
@@ -1038,11 +1102,11 @@
       <c r="C12" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="22" t="s">
         <v>12</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G12" s="14" t="s">
         <v>20</v>
@@ -1057,10 +1121,10 @@
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.15">
@@ -1072,10 +1136,10 @@
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.15">
@@ -1087,7 +1151,7 @@
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.15">
@@ -1099,7 +1163,7 @@
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.15">
@@ -1109,7 +1173,9 @@
       <c r="C17" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="17"/>
+      <c r="D17" s="21" t="s">
+        <v>30</v>
+      </c>
       <c r="E17" s="20"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.15">
@@ -1119,8 +1185,8 @@
       <c r="C18" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="17" t="s">
-        <v>32</v>
+      <c r="D18" s="21" t="s">
+        <v>30</v>
       </c>
       <c r="E18" s="20"/>
     </row>
@@ -1131,8 +1197,8 @@
       <c r="C19" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="17" t="s">
-        <v>12</v>
+      <c r="D19" s="21" t="s">
+        <v>30</v>
       </c>
       <c r="E19" s="20"/>
     </row>
@@ -1143,7 +1209,9 @@
       <c r="C20" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="17"/>
+      <c r="D20" s="21" t="s">
+        <v>30</v>
+      </c>
       <c r="E20" s="20"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.15">
@@ -1153,7 +1221,9 @@
       <c r="C21" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="17"/>
+      <c r="D21" s="21" t="s">
+        <v>30</v>
+      </c>
       <c r="E21" s="20"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.15">
@@ -1163,7 +1233,9 @@
       <c r="C22" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="17"/>
+      <c r="D22" s="21" t="s">
+        <v>30</v>
+      </c>
       <c r="E22" s="20"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.15">
@@ -1193,7 +1265,9 @@
       <c r="C25" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="17"/>
+      <c r="D25" s="24" t="s">
+        <v>31</v>
+      </c>
       <c r="E25" s="20"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.15">
@@ -1203,7 +1277,7 @@
       <c r="C26" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="22" t="s">
         <v>12</v>
       </c>
       <c r="E26" s="20"/>
@@ -1237,7 +1311,7 @@
       </c>
       <c r="D29" s="17"/>
       <c r="E29" s="20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.15">
@@ -1249,7 +1323,7 @@
       </c>
       <c r="D30" s="17"/>
       <c r="E30" s="20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.15">
@@ -1259,9 +1333,7 @@
       <c r="C31" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D31" s="17" t="s">
-        <v>22</v>
-      </c>
+      <c r="D31" s="17"/>
       <c r="E31" s="20"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.15">
@@ -1271,9 +1343,7 @@
       <c r="C32" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D32" s="17" t="s">
-        <v>12</v>
-      </c>
+      <c r="D32" s="17"/>
       <c r="E32" s="20"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.15">
@@ -1283,7 +1353,9 @@
       <c r="C33" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D33" s="17"/>
+      <c r="D33" s="22" t="s">
+        <v>12</v>
+      </c>
       <c r="E33" s="20"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.15">
@@ -1343,8 +1415,8 @@
       <c r="C39" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D39" s="17" t="s">
-        <v>12</v>
+      <c r="D39" s="24" t="s">
+        <v>32</v>
       </c>
       <c r="E39" s="20"/>
     </row>
@@ -1355,7 +1427,9 @@
       <c r="C40" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D40" s="17"/>
+      <c r="D40" s="22" t="s">
+        <v>12</v>
+      </c>
       <c r="E40" s="20"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.15">
@@ -1415,9 +1489,7 @@
       <c r="C46" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D46" s="17" t="s">
-        <v>12</v>
-      </c>
+      <c r="D46" s="17"/>
       <c r="E46" s="20"/>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.15">
@@ -1427,7 +1499,9 @@
       <c r="C47" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D47" s="17"/>
+      <c r="D47" s="22" t="s">
+        <v>12</v>
+      </c>
       <c r="E47" s="20"/>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.15">
@@ -1477,9 +1551,7 @@
       <c r="C52" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D52" s="17" t="s">
-        <v>31</v>
-      </c>
+      <c r="D52" s="17"/>
       <c r="E52" s="20"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.15">
@@ -1489,9 +1561,7 @@
       <c r="C53" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D53" s="17" t="s">
-        <v>12</v>
-      </c>
+      <c r="D53" s="17"/>
       <c r="E53" s="20"/>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.15">
@@ -1501,7 +1571,9 @@
       <c r="C54" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D54" s="17"/>
+      <c r="D54" s="22" t="s">
+        <v>12</v>
+      </c>
       <c r="E54" s="20"/>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.15">
@@ -1521,9 +1593,7 @@
       <c r="C56" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D56" s="17" t="s">
-        <v>23</v>
-      </c>
+      <c r="D56" s="17"/>
       <c r="E56" s="20"/>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.15">
@@ -1563,8 +1633,8 @@
       <c r="C60" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D60" s="17" t="s">
-        <v>12</v>
+      <c r="D60" s="24" t="s">
+        <v>33</v>
       </c>
       <c r="E60" s="20"/>
     </row>
@@ -1575,7 +1645,9 @@
       <c r="C61" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D61" s="17"/>
+      <c r="D61" s="22" t="s">
+        <v>12</v>
+      </c>
       <c r="E61" s="20"/>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.15">
@@ -1625,7 +1697,9 @@
       <c r="C66" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D66" s="17"/>
+      <c r="D66" s="23" t="s">
+        <v>29</v>
+      </c>
       <c r="E66" s="20"/>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.15">
@@ -1635,9 +1709,7 @@
       <c r="C67" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D67" s="17" t="s">
-        <v>12</v>
-      </c>
+      <c r="D67" s="17"/>
       <c r="E67" s="20"/>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.15">
@@ -1647,7 +1719,9 @@
       <c r="C68" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D68" s="17"/>
+      <c r="D68" s="22" t="s">
+        <v>12</v>
+      </c>
       <c r="E68" s="20"/>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.15">
@@ -1679,7 +1753,7 @@
       </c>
       <c r="D71" s="17"/>
       <c r="E71" s="20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.15">
@@ -1691,7 +1765,7 @@
       </c>
       <c r="D72" s="17"/>
       <c r="E72" s="20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.15">
@@ -1711,8 +1785,8 @@
       <c r="C74" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D74" s="17" t="s">
-        <v>12</v>
+      <c r="D74" s="24" t="s">
+        <v>35</v>
       </c>
       <c r="E74" s="20"/>
     </row>
@@ -1723,7 +1797,9 @@
       <c r="C75" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D75" s="17"/>
+      <c r="D75" s="22" t="s">
+        <v>12</v>
+      </c>
       <c r="E75" s="20"/>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.15">
@@ -1733,7 +1809,9 @@
       <c r="C76" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D76" s="17"/>
+      <c r="D76" s="25" t="s">
+        <v>36</v>
+      </c>
       <c r="E76" s="20"/>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.15">
@@ -1743,8 +1821,8 @@
       <c r="C77" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D77" s="17" t="s">
-        <v>33</v>
+      <c r="D77" s="25" t="s">
+        <v>36</v>
       </c>
       <c r="E77" s="20"/>
     </row>
@@ -1755,7 +1833,9 @@
       <c r="C78" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D78" s="17"/>
+      <c r="D78" s="25" t="s">
+        <v>36</v>
+      </c>
       <c r="E78" s="20"/>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.15">
@@ -1765,7 +1845,9 @@
       <c r="C79" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D79" s="17"/>
+      <c r="D79" s="24" t="s">
+        <v>34</v>
+      </c>
       <c r="E79" s="20"/>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.15">
@@ -1775,8 +1857,8 @@
       <c r="C80" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D80" s="17" t="s">
-        <v>30</v>
+      <c r="D80" s="23" t="s">
+        <v>28</v>
       </c>
       <c r="E80" s="20"/>
     </row>

--- a/Docs/予定表.xlsx
+++ b/Docs/予定表.xlsx
@@ -946,7 +946,7 @@
   <dimension ref="B2:I80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E78" sqref="E78"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
